--- a/data-raw/metadata/tisdale_recapture_metadata.xlsx
+++ b/data-raw/metadata/tisdale_recapture_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badhia\Documents\git\jpe-tisdale-edi\data-raw\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604E1948-B5C7-4884-A675-1C0F9A50BEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2854455D-1CBE-416D-AFEB-3F61E09DCD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27585" yWindow="2730" windowWidth="25425" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="72">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -232,6 +232,18 @@
   </si>
   <si>
     <t>Position of mark found on fish. Levels = c("Whole body", "Nose", "Not applicable (n/a)", "Pelvic fin", "Pelvic fin, left")</t>
+  </si>
+  <si>
+    <t>trap_start_date</t>
+  </si>
+  <si>
+    <t>Start date and time of a trapping period. Derived from visitTime and visitTime2 fields, adjusted based on the visitType field</t>
+  </si>
+  <si>
+    <t>trap_end_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> End date and time of a trapping period. Derived from visitTime and visitTime2 fields, adjusted based on the visitType field</t>
   </si>
 </sst>
 </file>
@@ -537,8 +549,8 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1367,19 +1379,35 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
+      <c r="A21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="10">
+        <v>40524.531643518516</v>
+      </c>
+      <c r="M21" s="10">
+        <v>45378.416817129626</v>
+      </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -1395,19 +1423,35 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="4"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="A22" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" s="6"/>
+      <c r="L22" s="10">
+        <v>40524.531643518516</v>
+      </c>
+      <c r="M22" s="10">
+        <v>45378.416817129626</v>
+      </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
